--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32070-d6401676-Reviews-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,276 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r515971963-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>32070</t>
+  </si>
+  <si>
+    <t>6401676</t>
+  </si>
+  <si>
+    <t>515971963</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Eclipse party at the AKA!</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay at the AKA.  Great location, super helpful and friendly staff and even an Eclipse Party in the beautiful courtyard!  The staff really put together a nice morning to view the Eclipse, complete with special glasses, coffee, pastries and bubbles for the kids.  Thank you AKA for helping all the guests enjoy this special event.  If you are planning an extended stay in Beverly Hills this is the place, they even drive you were you need to go within Beverly Hiils.Great for families, lots of room in the Apartments.  Room service from Spago's!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r488184264-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>488184264</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Great location, super convinient</t>
+  </si>
+  <si>
+    <t>Looking for an alternative to hotel bedrooms ? AkA Beverly Hills offers spacious apartments, very nicely furnished and impeccably presented. Daily housekeeping and 24h front desk and car valet. A very convenient and quality address in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>stayaka, Front Office Manager at AKA Beverly Hills, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Looking for an alternative to hotel bedrooms ? AkA Beverly Hills offers spacious apartments, very nicely furnished and impeccably presented. Daily housekeeping and 24h front desk and car valet. A very convenient and quality address in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r485450019-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>485450019</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka Beverly hills stay </t>
+  </si>
+  <si>
+    <t>Very convenient place , clean, neat very well furnished  in prime location easy to reach everything in Beverly Hills within short walk and the most important very friendly staff members .I like it so much and highly recommended it for Los Angeles visitors . MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Michael M, Guest Relations Manager at AKA Beverly Hills, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Very convenient place , clean, neat very well furnished  in prime location easy to reach everything in Beverly Hills within short walk and the most important very friendly staff members .I like it so much and highly recommended it for Los Angeles visitors . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r393715060-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>393715060</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Excellent and the best short term rental in Beverly Hills</t>
+  </si>
+  <si>
+    <t>The best place for short term rental in Beverly Hills especially you need 2 BR residence with in room laundry machine, cable and kitchen. The place equipped w small fitness center and business center. The best is the location where it's near canon and wilshire, just a block away from montage hotel. Few hundreds meters away from whole food market so it's perfect.I like the 2BR duplex near the street so it's convenience like small houses but the bad thing is near the street so its a bit noisy.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The best place for short term rental in Beverly Hills especially you need 2 BR residence with in room laundry machine, cable and kitchen. The place equipped w small fitness center and business center. The best is the location where it's near canon and wilshire, just a block away from montage hotel. Few hundreds meters away from whole food market so it's perfect.I like the 2BR duplex near the street so it's convenience like small houses but the bad thing is near the street so its a bit noisy.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r389904095-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>389904095</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>We are staying for 2 weeks and I highly recommend here. Great location and all the guys at the front desk are amazing especially Jessica and Michael. You can reach anywhere within 5-10 min of walk. Michael and Jessica did their best to make us happy. The hotel is clean and Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r379478609-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>379478609</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>This place is seriously the best...</t>
+  </si>
+  <si>
+    <t>I am a world traveler who has a taste for high end hotels but must find alternatives when traveling with family.  This is the perfect "no compromise" - Imagine all of the practical comforts of a "suite hotel" wrapped in the package of the W, without all the "W pretension "....stylish, trendy lobby and rooms.  Simple, clean, modern furniture.  SUPER clean and big apartments.  Great fitness center almost always empty.  The BEST, and I mean THE BEST, staff - so friendly helpful always there - ALL OF THEM.  Never met a rude person there.  Great valet parking.  Literally could not ask for a better place to stay.  Thanks so much AKA.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I am a world traveler who has a taste for high end hotels but must find alternatives when traveling with family.  This is the perfect "no compromise" - Imagine all of the practical comforts of a "suite hotel" wrapped in the package of the W, without all the "W pretension "....stylish, trendy lobby and rooms.  Simple, clean, modern furniture.  SUPER clean and big apartments.  Great fitness center almost always empty.  The BEST, and I mean THE BEST, staff - so friendly helpful always there - ALL OF THEM.  Never met a rude person there.  Great valet parking.  Literally could not ask for a better place to stay.  Thanks so much AKA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r368021617-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>368021617</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable place</t>
+  </si>
+  <si>
+    <t>Loved the location, walking to whole foods, pharmacy, restaurants and Beverly wilshire. Reception staff amazing, professional, kind, helpful, nothing was too much for them...very confortable beds, flats...hope to return soon, a yes place in LA</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r366217675-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>366217675</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>My daughters and I stayed one week. The hotel is absolutely amazing. Loved it. Felt like a home away from home. The staff was remarkable. From the minute we arrived, till the day we left. They were very helpful, friendly, and professional. The house car was also wonderful, drove us where ever we needed to go, and vey quick pick up, when we were ready to return. Whole foods, was a quick walk away. Wish I could of stayed longer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r359407976-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>359407976</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Great staycay!</t>
+  </si>
+  <si>
+    <t>My husband and I had a very lovely stay here in a 1 bedroom suite (#412).  From valet to checking in and checking out everyone was very attentive and professional.  Special shout out to Noel Hernandez.  He has been a great help!  The hotel always smelled fresh and clean.  I'm still trying to figure out what they use to make it smell so good.  It is in a great location and close to many restaurants and shops.  Room are very spacious and modern.  Kitchens are fully stocked with everything you need to cook a meal.  There's a Whole Foods within walking distance if you need food or supplies.  They have complimentary coffee and tea every morning.  The gym is nicely equipped with everything you need to get a good workout in.  The 3rd floor terrace is cute and cozy.  The only thing I wished they had was a swimming pool.  Other than that, everything about AKA Beverly Hills was awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>My husband and I had a very lovely stay here in a 1 bedroom suite (#412).  From valet to checking in and checking out everyone was very attentive and professional.  Special shout out to Noel Hernandez.  He has been a great help!  The hotel always smelled fresh and clean.  I'm still trying to figure out what they use to make it smell so good.  It is in a great location and close to many restaurants and shops.  Room are very spacious and modern.  Kitchens are fully stocked with everything you need to cook a meal.  There's a Whole Foods within walking distance if you need food or supplies.  They have complimentary coffee and tea every morning.  The gym is nicely equipped with everything you need to get a good workout in.  The 3rd floor terrace is cute and cozy.  The only thing I wished they had was a swimming pool.  Other than that, everything about AKA Beverly Hills was awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r317268933-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>317268933</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Did not want to leave</t>
+  </si>
+  <si>
+    <t>Stayed here with family for a week. The staff, the layout, the location make this an incredibly nice place to stay.Could easily have stayed longer but other places to explore.The best front of house staff I have encountered in 20 years of travel!!It's at the top of our list for our next US adventure.Michael you rock!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r283036363-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>283036363</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for a week after staying at AKA TIMES SQUARE. This hotel is perfect in everyway, our room was huge!! and enough room for all 5 of us. The staff were some of the best I have experienced and are more than happy to assist you with anything &amp; are always up for a chat. So close to everything, clean &amp; quiet. Will be going back. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r274637056-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>274637056</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Hidden Jewel</t>
+  </si>
+  <si>
+    <t>Extraordinary hidden jewel. The hotel is centrally located in the Beverly Hills area.  Close to Rodeo Drive shopping, restaurants, entertainment and most important one block from grocery stores all within walking distance.  We enjoy morning walks and the local neighbourhood is very close including parks where very quiet walks can be done in the morning.  The hotel is modern, chic yet discreet.  Walking or driving by the complex you would not know it is a hotel.  The rooms were very large, clean, lots of windows, with all of the amenities for a long term stay.  The outdoor lounge area was extremely clean and lush with vegetation, maintained daily.  What makes this hotel incredible, is the STAFF!!  They all new my name, greeted us every time we entered the lobby.  Everyone smiled and waved and felt like home. Especially Jacky, she made us feel appreciated and respected, and always there.  The staff makes this hotel jump from four stars to FIVE.  In an area where other hotels are older, very expensive and tired, the AKA feels like a breath of fresh air. This now forces me to try the AKA chain on my future travels around the world.   Selfishly I hope this hotel does not become popular and remains a hidden jewel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Extraordinary hidden jewel. The hotel is centrally located in the Beverly Hills area.  Close to Rodeo Drive shopping, restaurants, entertainment and most important one block from grocery stores all within walking distance.  We enjoy morning walks and the local neighbourhood is very close including parks where very quiet walks can be done in the morning.  The hotel is modern, chic yet discreet.  Walking or driving by the complex you would not know it is a hotel.  The rooms were very large, clean, lots of windows, with all of the amenities for a long term stay.  The outdoor lounge area was extremely clean and lush with vegetation, maintained daily.  What makes this hotel incredible, is the STAFF!!  They all new my name, greeted us every time we entered the lobby.  Everyone smiled and waved and felt like home. Especially Jacky, she made us feel appreciated and respected, and always there.  The staff makes this hotel jump from four stars to FIVE.  In an area where other hotels are older, very expensive and tired, the AKA feels like a breath of fresh air. This now forces me to try the AKA chain on my future travels around the world.   Selfishly I hope this hotel does not become popular and remains a hidden jewel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r217353919-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>217353919</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Stayed there for the summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place is really nice and clean. The staff are very friendly. It's perfectly located and very close to everything   I soo recommend it for a long stay in LA. The location is close to all restaurents. Supermarkets and shopping is a pin drop away. I definitely recommend this property </t>
   </si>
 </sst>
 </file>
@@ -648,6 +918,767 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mitzi O</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>AIXTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r488184264-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Looking for an alternative to hotel bedrooms ? AkA Beverly Hills offers spacious apartments, very nicely furnished and impeccably presented. Daily housekeeping and 24h front desk and car valet. A very convenient and quality address in town. More</t>
   </si>
   <si>
+    <t>Maha A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r485450019-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Very convenient place , clean, neat very well furnished  in prime location easy to reach everything in Beverly Hills within short walk and the most important very friendly staff members .I like it so much and highly recommended it for Los Angeles visitors . More</t>
   </si>
   <si>
+    <t>Rapri22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r393715060-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>The best place for short term rental in Beverly Hills especially you need 2 BR residence with in room laundry machine, cable and kitchen. The place equipped w small fitness center and business center. The best is the location where it's near canon and wilshire, just a block away from montage hotel. Few hundreds meters away from whole food market so it's perfect.I like the 2BR duplex near the street so it's convenience like small houses but the bad thing is near the street so its a bit noisy.  More</t>
   </si>
   <si>
+    <t>bbasolBbasol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r389904095-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>We are staying for 2 weeks and I highly recommend here. Great location and all the guys at the front desk are amazing especially Jessica and Michael. You can reach anywhere within 5-10 min of walk. Michael and Jessica did their best to make us happy. The hotel is clean and Highly recommended.</t>
   </si>
   <si>
+    <t>AngusRodrigo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r379478609-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>I am a world traveler who has a taste for high end hotels but must find alternatives when traveling with family.  This is the perfect "no compromise" - Imagine all of the practical comforts of a "suite hotel" wrapped in the package of the W, without all the "W pretension "....stylish, trendy lobby and rooms.  Simple, clean, modern furniture.  SUPER clean and big apartments.  Great fitness center almost always empty.  The BEST, and I mean THE BEST, staff - so friendly helpful always there - ALL OF THEM.  Never met a rude person there.  Great valet parking.  Literally could not ask for a better place to stay.  Thanks so much AKA.More</t>
   </si>
   <si>
+    <t>patriciasey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r368021617-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Loriarndt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r366217675-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>My daughters and I stayed one week. The hotel is absolutely amazing. Loved it. Felt like a home away from home. The staff was remarkable. From the minute we arrived, till the day we left. They were very helpful, friendly, and professional. The house car was also wonderful, drove us where ever we needed to go, and vey quick pick up, when we were ready to return. Whole foods, was a quick walk away. Wish I could of stayed longer.</t>
   </si>
   <si>
+    <t>Kim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r359407976-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>My husband and I had a very lovely stay here in a 1 bedroom suite (#412).  From valet to checking in and checking out everyone was very attentive and professional.  Special shout out to Noel Hernandez.  He has been a great help!  The hotel always smelled fresh and clean.  I'm still trying to figure out what they use to make it smell so good.  It is in a great location and close to many restaurants and shops.  Room are very spacious and modern.  Kitchens are fully stocked with everything you need to cook a meal.  There's a Whole Foods within walking distance if you need food or supplies.  They have complimentary coffee and tea every morning.  The gym is nicely equipped with everything you need to get a good workout in.  The 3rd floor terrace is cute and cozy.  The only thing I wished they had was a swimming pool.  Other than that, everything about AKA Beverly Hills was awesome!More</t>
   </si>
   <si>
+    <t>EatDrinkSleeps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r317268933-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>Stayed here with family for a week. The staff, the layout, the location make this an incredibly nice place to stay.Could easily have stayed longer but other places to explore.The best front of house staff I have encountered in 20 years of travel!!It's at the top of our list for our next US adventure.Michael you rock!!</t>
   </si>
   <si>
+    <t>youngtravellerluxury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r283036363-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>TouristTraveler59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r274637056-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -403,6 +439,9 @@
   </si>
   <si>
     <t>Extraordinary hidden jewel. The hotel is centrally located in the Beverly Hills area.  Close to Rodeo Drive shopping, restaurants, entertainment and most important one block from grocery stores all within walking distance.  We enjoy morning walks and the local neighbourhood is very close including parks where very quiet walks can be done in the morning.  The hotel is modern, chic yet discreet.  Walking or driving by the complex you would not know it is a hotel.  The rooms were very large, clean, lots of windows, with all of the amenities for a long term stay.  The outdoor lounge area was extremely clean and lush with vegetation, maintained daily.  What makes this hotel incredible, is the STAFF!!  They all new my name, greeted us every time we entered the lobby.  Everyone smiled and waved and felt like home. Especially Jacky, she made us feel appreciated and respected, and always there.  The staff makes this hotel jump from four stars to FIVE.  In an area where other hotels are older, very expensive and tired, the AKA feels like a breath of fresh air. This now forces me to try the AKA chain on my future travels around the world.   Selfishly I hope this hotel does not become popular and remains a hidden jewel.More</t>
+  </si>
+  <si>
+    <t>Rana D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r217353919-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
@@ -922,43 +961,47 @@
       <c r="A2" t="n">
         <v>62265</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>149889</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -976,50 +1019,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>62265</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>149890</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1031,56 +1078,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>62265</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>149891</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1092,56 +1143,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>62265</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>149892</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1153,56 +1208,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>62265</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>149893</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1216,50 +1275,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>62265</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>149894</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1279,50 +1342,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>62265</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>149895</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1336,41 +1403,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>62265</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>149896</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -1389,50 +1460,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>62265</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>25262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1450,41 +1525,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>62265</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>149897</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1503,50 +1582,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>62265</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>149898</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1560,50 +1643,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>62265</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>149899</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1623,41 +1710,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>62265</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>59246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
@@ -1676,7 +1767,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,126 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Mitzi O</t>
-  </si>
-  <si>
-    <t>06/27/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r609909558-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>32070</t>
+  </si>
+  <si>
+    <t>6401676</t>
+  </si>
+  <si>
+    <t>609909558</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Best apartment hotel in Beverly Hills</t>
+  </si>
+  <si>
+    <t>We stayed for 30 nights at the hotel after we moved form another property in Beverly Hills, We stayed in the two bedroom #townhouse and also in the two bedroom #apartment . The place is amazing for #long-stay and with full #kitchen, washer &amp; dryer, free #wifi and cable tv, for a family of four it was very enjoyable. The location is also amazing int the middle of #Beverly-Hills and minutes away from Rodeo Drive, lots of restaurants and shops are close by and a Wholesfood store is couple of minutes away. The level of service was also amazing, Christina Khatchadourian was a life saver to us she helped us with finding for us a reservation in a very short time and was following up with us during our whole stay and even on weekends. The whole team at the front desk &amp; Valet were all amazing. My only comment is more attention to maintenance is required at the property so request an upgraded apartments when you make a booking.Overall all very positive experience and I look forward to staying at other AKA hotels soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Noel H, Vice President : Sales at AKA Beverly Hills, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We stayed for 30 nights at the hotel after we moved form another property in Beverly Hills, We stayed in the two bedroom #townhouse and also in the two bedroom #apartment . The place is amazing for #long-stay and with full #kitchen, washer &amp; dryer, free #wifi and cable tv, for a family of four it was very enjoyable. The location is also amazing int the middle of #Beverly-Hills and minutes away from Rodeo Drive, lots of restaurants and shops are close by and a Wholesfood store is couple of minutes away. The level of service was also amazing, Christina Khatchadourian was a life saver to us she helped us with finding for us a reservation in a very short time and was following up with us during our whole stay and even on weekends. The whole team at the front desk &amp; Valet were all amazing. My only comment is more attention to maintenance is required at the property so request an upgraded apartments when you make a booking.Overall all very positive experience and I look forward to staying at other AKA hotels soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r561067826-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>561067826</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>I stayed there with my wife on our honeymoon  , and the hotel was fantastic and amazing .The staff was super friendly and understanding , the apartment were very clean , tidy and cozy .They also have a cinema room with tons of movies you can select from and they offer house car which is ( a hotel car can take you to any where you want with radius of 2 miles of the hotel )I enjoyed staying there and i will do it again and again everytime i visit los angeles - beverly hillsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Noel H, General Manager at AKA Beverly Hills, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>I stayed there with my wife on our honeymoon  , and the hotel was fantastic and amazing .The staff was super friendly and understanding , the apartment were very clean , tidy and cozy .They also have a cinema room with tons of movies you can select from and they offer house car which is ( a hotel car can take you to any where you want with radius of 2 miles of the hotel )I enjoyed staying there and i will do it again and again everytime i visit los angeles - beverly hillsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r598553270-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>598553270</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Gorgeous property!</t>
+  </si>
+  <si>
+    <t>Stunning suites + great service. This is a longer term stay boutuque residence/hotel that feels like a luxury apartment.  Such a quiet and beautiful part of Beverly Hills. Walk to restaurants + Rodeo drive..  Loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Noel H, General Manager at AKA Beverly Hills, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Stunning suites + great service. This is a longer term stay boutuque residence/hotel that feels like a luxury apartment.  Such a quiet and beautiful part of Beverly Hills. Walk to restaurants + Rodeo drive..  Loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r570301500-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>570301500</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great space </t>
+  </si>
+  <si>
+    <t>For roughly the same money as a small hotel room you can stay in a large flat. We stayed with a 4 yr old in a fold away bed and a 5 month old in a travel cot - plenty of space and meant we could chill rather than tripping over each other all the time. Great location and staff are incredibly friendly. The staff is more of a reception / concierge but there is Wholefoods about 100m away which is open late or Rite Aid round the corner which is 24hrs. On the whole, can’t fault. Only comment is that lost people have dogs and my daughter is petrified of them. Also, the unit above us seems to like playing fetch with their large dog late in the evening which is rather loud. Otherwise, a very enjoyable stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>For roughly the same money as a small hotel room you can stay in a large flat. We stayed with a 4 yr old in a fold away bed and a 5 month old in a travel cot - plenty of space and meant we could chill rather than tripping over each other all the time. Great location and staff are incredibly friendly. The staff is more of a reception / concierge but there is Wholefoods about 100m away which is open late or Rite Aid round the corner which is 24hrs. On the whole, can’t fault. Only comment is that lost people have dogs and my daughter is petrified of them. Also, the unit above us seems to like playing fetch with their large dog late in the evening which is rather loud. Otherwise, a very enjoyable stay. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r515971963-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
-    <t>32070</t>
-  </si>
-  <si>
-    <t>6401676</t>
-  </si>
-  <si>
     <t>515971963</t>
   </si>
   <si>
@@ -180,12 +285,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>AIXTravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r488184264-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -216,9 +315,6 @@
     <t>Looking for an alternative to hotel bedrooms ? AkA Beverly Hills offers spacious apartments, very nicely furnished and impeccably presented. Daily housekeeping and 24h front desk and car valet. A very convenient and quality address in town. More</t>
   </si>
   <si>
-    <t>Maha A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r485450019-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -234,9 +330,6 @@
     <t>Very convenient place , clean, neat very well furnished  in prime location easy to reach everything in Beverly Hills within short walk and the most important very friendly staff members .I like it so much and highly recommended it for Los Angeles visitors . MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Michael M, Guest Relations Manager at AKA Beverly Hills, responded to this reviewResponded May 22, 2017</t>
   </si>
   <si>
@@ -246,7 +339,46 @@
     <t>Very convenient place , clean, neat very well furnished  in prime location easy to reach everything in Beverly Hills within short walk and the most important very friendly staff members .I like it so much and highly recommended it for Los Angeles visitors . More</t>
   </si>
   <si>
-    <t>Rapri22</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r483764516-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>483764516</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>AKA Beverly Hills is a brilliant hotel with wonderful personal service by very caring staff.We have spent a week at AKA and it is so friendly and pleasant you don't want to leave. Our room is excellent, and unusually oversize with every amenity! Very clean and comfortable with great space and room to hang all of your clothes and gear. A great view over a terrace garden on the 3rd floor which is a great outlet space. The hotel is 100 metres from Wiltshire Blvd and two blocks from Rodeo Drive which can be dangerous for your credit card. A Whole Foods market is 200 metres away and has every thing you need and more. It is a great location and a very homely friendly hotel and highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>AKA Beverly Hills is a brilliant hotel with wonderful personal service by very caring staff.We have spent a week at AKA and it is so friendly and pleasant you don't want to leave. Our room is excellent, and unusually oversize with every amenity! Very clean and comfortable with great space and room to hang all of your clothes and gear. A great view over a terrace garden on the 3rd floor which is a great outlet space. The hotel is 100 metres from Wiltshire Blvd and two blocks from Rodeo Drive which can be dangerous for your credit card. A Whole Foods market is 200 metres away and has every thing you need and more. It is a great location and a very homely friendly hotel and highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r458745492-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>458745492</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Top Class High End Rental</t>
+  </si>
+  <si>
+    <t>Amazing short term Apartments with incredible service in the heart of Beverly Hills. If you are looking for short term rentals this is the place.   A.k.a.  Offers the very best of what short term living has to offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Amazing short term Apartments with incredible service in the heart of Beverly Hills. If you are looking for short term rentals this is the place.   A.k.a.  Offers the very best of what short term living has to offer.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r393715060-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
@@ -270,9 +402,6 @@
     <t>The best place for short term rental in Beverly Hills especially you need 2 BR residence with in room laundry machine, cable and kitchen. The place equipped w small fitness center and business center. The best is the location where it's near canon and wilshire, just a block away from montage hotel. Few hundreds meters away from whole food market so it's perfect.I like the 2BR duplex near the street so it's convenience like small houses but the bad thing is near the street so its a bit noisy.  More</t>
   </si>
   <si>
-    <t>bbasolBbasol</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r389904095-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -288,9 +417,6 @@
     <t>We are staying for 2 weeks and I highly recommend here. Great location and all the guys at the front desk are amazing especially Jessica and Michael. You can reach anywhere within 5-10 min of walk. Michael and Jessica did their best to make us happy. The hotel is clean and Highly recommended.</t>
   </si>
   <si>
-    <t>AngusRodrigo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r379478609-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -312,7 +438,43 @@
     <t>I am a world traveler who has a taste for high end hotels but must find alternatives when traveling with family.  This is the perfect "no compromise" - Imagine all of the practical comforts of a "suite hotel" wrapped in the package of the W, without all the "W pretension "....stylish, trendy lobby and rooms.  Simple, clean, modern furniture.  SUPER clean and big apartments.  Great fitness center almost always empty.  The BEST, and I mean THE BEST, staff - so friendly helpful always there - ALL OF THEM.  Never met a rude person there.  Great valet parking.  Literally could not ask for a better place to stay.  Thanks so much AKA.More</t>
   </si>
   <si>
-    <t>patriciasey</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r378558683-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>378558683</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>The most perfect stay in Beverly Hills!</t>
+  </si>
+  <si>
+    <t>First of all I'd like to say that I booked directly via AKA and that this is my second visit to Beverly Hills.The AKA apartments are very spacious, kitchen comes fully equipped, wash machine and dryer available with free single use soap (to refresh clothes of those who are coming from a long haul flight!) I came to a beautiful apartment with a cute hand written welcome card and discounts for madam Tussaud's. Besides the spaciousness I would like to add that the modern decor and aroma of the entire hallway are to die for.Access to a wonderful terrace, private cinema downstairs makes the place stand out too.Location is perfect, roughly 5 mins walk from Rodeo Drive (in heels !)I cannot say enough great things about this place.To top it all off my friend left her debit card there and travelled to canada, when she contacted them they offered to send it to her.Professionalism at its finest!Would book again and again !Thank you AKA !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all I'd like to say that I booked directly via AKA and that this is my second visit to Beverly Hills.The AKA apartments are very spacious, kitchen comes fully equipped, wash machine and dryer available with free single use soap (to refresh clothes of those who are coming from a long haul flight!) I came to a beautiful apartment with a cute hand written welcome card and discounts for madam Tussaud's. Besides the spaciousness I would like to add that the modern decor and aroma of the entire hallway are to die for.Access to a wonderful terrace, private cinema downstairs makes the place stand out too.Location is perfect, roughly 5 mins walk from Rodeo Drive (in heels !)I cannot say enough great things about this place.To top it all off my friend left her debit card there and travelled to canada, when she contacted them they offered to send it to her.Professionalism at its finest!Would book again and again !Thank you AKA !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r375635016-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>375635016</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Better than home in Beverly Hills</t>
+  </si>
+  <si>
+    <t>This was our third visit to aka Beverly Hills and we have a reservation for September 2016.  It is an amazing apartment hotel.  The apartments are huge and immaculately clean.  We use a 2 bedroom/2 bathroom apt.  The apartments are light filled and very tastefully decorated.  Beds are comfortable and linen is high quality.  The kitchen is fully equipped with side by side fridge (chilled water and ice feature), double oven, microwave, dishwasher.  Fully equipped with kitchenware.  There's a desk in the living room.  Bathrooms are extremely large and include bath and separate shower.  Each bedroom has a walk in robe, television, telephone, tons of storage.  The apartments have so much storage.  The laundry has a large washer and dryer.  There's also a powder room.  The gas fireplace is a real treat.  Balcony off the living room.  The large outdoor area on the third level is beautiful with an outdoor fireplace and views of the Hollywood Hills.  There is a private cinema, a coffee lounge, a business centre, and a gym - all top quality.  Fast free wi-fi.  The location is perfect, 3 blocks from Rodeo Drive.  Wholefoods and pharmacies etc within a block or two.  Spago provide the room service!!!  On site parking, and a town car to take you anywhere within a 2 mile radius.  The staff are amazing, so helpful and friendly.  You truly feel like you live there.  Ask for the apartments on the upper floors...This was our third visit to aka Beverly Hills and we have a reservation for September 2016.  It is an amazing apartment hotel.  The apartments are huge and immaculately clean.  We use a 2 bedroom/2 bathroom apt.  The apartments are light filled and very tastefully decorated.  Beds are comfortable and linen is high quality.  The kitchen is fully equipped with side by side fridge (chilled water and ice feature), double oven, microwave, dishwasher.  Fully equipped with kitchenware.  There's a desk in the living room.  Bathrooms are extremely large and include bath and separate shower.  Each bedroom has a walk in robe, television, telephone, tons of storage.  The apartments have so much storage.  The laundry has a large washer and dryer.  There's also a powder room.  The gas fireplace is a real treat.  Balcony off the living room.  The large outdoor area on the third level is beautiful with an outdoor fireplace and views of the Hollywood Hills.  There is a private cinema, a coffee lounge, a business centre, and a gym - all top quality.  Fast free wi-fi.  The location is perfect, 3 blocks from Rodeo Drive.  Wholefoods and pharmacies etc within a block or two.  Spago provide the room service!!!  On site parking, and a town car to take you anywhere within a 2 mile radius.  The staff are amazing, so helpful and friendly.  You truly feel like you live there.  Ask for the apartments on the upper floors as these have upgraded marble bathrooms, timber floors, a nespresso machine and window treatments.  I couldn't speak more highly of aka Beverly Hills, and we will return again and again.  Seven night minimum applies.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This was our third visit to aka Beverly Hills and we have a reservation for September 2016.  It is an amazing apartment hotel.  The apartments are huge and immaculately clean.  We use a 2 bedroom/2 bathroom apt.  The apartments are light filled and very tastefully decorated.  Beds are comfortable and linen is high quality.  The kitchen is fully equipped with side by side fridge (chilled water and ice feature), double oven, microwave, dishwasher.  Fully equipped with kitchenware.  There's a desk in the living room.  Bathrooms are extremely large and include bath and separate shower.  Each bedroom has a walk in robe, television, telephone, tons of storage.  The apartments have so much storage.  The laundry has a large washer and dryer.  There's also a powder room.  The gas fireplace is a real treat.  Balcony off the living room.  The large outdoor area on the third level is beautiful with an outdoor fireplace and views of the Hollywood Hills.  There is a private cinema, a coffee lounge, a business centre, and a gym - all top quality.  Fast free wi-fi.  The location is perfect, 3 blocks from Rodeo Drive.  Wholefoods and pharmacies etc within a block or two.  Spago provide the room service!!!  On site parking, and a town car to take you anywhere within a 2 mile radius.  The staff are amazing, so helpful and friendly.  You truly feel like you live there.  Ask for the apartments on the upper floors...This was our third visit to aka Beverly Hills and we have a reservation for September 2016.  It is an amazing apartment hotel.  The apartments are huge and immaculately clean.  We use a 2 bedroom/2 bathroom apt.  The apartments are light filled and very tastefully decorated.  Beds are comfortable and linen is high quality.  The kitchen is fully equipped with side by side fridge (chilled water and ice feature), double oven, microwave, dishwasher.  Fully equipped with kitchenware.  There's a desk in the living room.  Bathrooms are extremely large and include bath and separate shower.  Each bedroom has a walk in robe, television, telephone, tons of storage.  The apartments have so much storage.  The laundry has a large washer and dryer.  There's also a powder room.  The gas fireplace is a real treat.  Balcony off the living room.  The large outdoor area on the third level is beautiful with an outdoor fireplace and views of the Hollywood Hills.  There is a private cinema, a coffee lounge, a business centre, and a gym - all top quality.  Fast free wi-fi.  The location is perfect, 3 blocks from Rodeo Drive.  Wholefoods and pharmacies etc within a block or two.  Spago provide the room service!!!  On site parking, and a town car to take you anywhere within a 2 mile radius.  The staff are amazing, so helpful and friendly.  You truly feel like you live there.  Ask for the apartments on the upper floors as these have upgraded marble bathrooms, timber floors, a nespresso machine and window treatments.  I couldn't speak more highly of aka Beverly Hills, and we will return again and again.  Seven night minimum applies.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r368021617-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
@@ -333,12 +495,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Loriarndt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r366217675-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -354,9 +510,6 @@
     <t>My daughters and I stayed one week. The hotel is absolutely amazing. Loved it. Felt like a home away from home. The staff was remarkable. From the minute we arrived, till the day we left. They were very helpful, friendly, and professional. The house car was also wonderful, drove us where ever we needed to go, and vey quick pick up, when we were ready to return. Whole foods, was a quick walk away. Wish I could of stayed longer.</t>
   </si>
   <si>
-    <t>Kim K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r359407976-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -378,7 +531,52 @@
     <t>My husband and I had a very lovely stay here in a 1 bedroom suite (#412).  From valet to checking in and checking out everyone was very attentive and professional.  Special shout out to Noel Hernandez.  He has been a great help!  The hotel always smelled fresh and clean.  I'm still trying to figure out what they use to make it smell so good.  It is in a great location and close to many restaurants and shops.  Room are very spacious and modern.  Kitchens are fully stocked with everything you need to cook a meal.  There's a Whole Foods within walking distance if you need food or supplies.  They have complimentary coffee and tea every morning.  The gym is nicely equipped with everything you need to get a good workout in.  The 3rd floor terrace is cute and cozy.  The only thing I wished they had was a swimming pool.  Other than that, everything about AKA Beverly Hills was awesome!More</t>
   </si>
   <si>
-    <t>EatDrinkSleeps</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r326127464-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>326127464</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Would not Honor their Confirmation</t>
+  </si>
+  <si>
+    <t>I booked a two bedroom suite at this hotel in September 2015, the rate online was $425.00 /night, and was confirmed to me by email.  I thought this was a great rate so I called their International number, and the operator said this was correct and confirmed it again.  Now I am 5 days before arrival and they have told me that I need to pay 50% more, as their computer made a mistake.  I dealt with the General Manager, and even the owner, and none of them would stand by the rate that I had on paper, claiming it was a computer error.  
+After I had booked my reservation, I was sent this great letter welcoming me, and asking if I need any help planning my stay, groceries, personal trainers, reservations, etc.  This was a great idea.  But when I responded asking about transportation and personal trainers.  I didn't hear from anyone for 10 days, and then she only addressed my request for transportation.  Obviously I had to make other arrangements, as 10 days is incomprehensible.
+When you initially go on the website it looks very nice, great photos, east to navigate, easy to book, but when you start dealing with the staff, you realize they aren't as impressive.
+I will be going back to the Beverly Wilshire, where I have stayed for the past seven years.  It is more expensive, but it is completely worth it, as the...I booked a two bedroom suite at this hotel in September 2015, the rate online was $425.00 /night, and was confirmed to me by email.  I thought this was a great rate so I called their International number, and the operator said this was correct and confirmed it again.  Now I am 5 days before arrival and they have told me that I need to pay 50% more, as their computer made a mistake.  I dealt with the General Manager, and even the owner, and none of them would stand by the rate that I had on paper, claiming it was a computer error.  After I had booked my reservation, I was sent this great letter welcoming me, and asking if I need any help planning my stay, groceries, personal trainers, reservations, etc.  This was a great idea.  But when I responded asking about transportation and personal trainers.  I didn't hear from anyone for 10 days, and then she only addressed my request for transportation.  Obviously I had to make other arrangements, as 10 days is incomprehensible.When you initially go on the website it looks very nice, great photos, east to navigate, easy to book, but when you start dealing with the staff, you realize they aren't as impressive.I will be going back to the Beverly Wilshire, where I have stayed for the past seven years.  It is more expensive, but it is completely worth it, as the staff are all extremely well trained, and they stand by what their company letterhead promises, even when it is a mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I booked a two bedroom suite at this hotel in September 2015, the rate online was $425.00 /night, and was confirmed to me by email.  I thought this was a great rate so I called their International number, and the operator said this was correct and confirmed it again.  Now I am 5 days before arrival and they have told me that I need to pay 50% more, as their computer made a mistake.  I dealt with the General Manager, and even the owner, and none of them would stand by the rate that I had on paper, claiming it was a computer error.  
+After I had booked my reservation, I was sent this great letter welcoming me, and asking if I need any help planning my stay, groceries, personal trainers, reservations, etc.  This was a great idea.  But when I responded asking about transportation and personal trainers.  I didn't hear from anyone for 10 days, and then she only addressed my request for transportation.  Obviously I had to make other arrangements, as 10 days is incomprehensible.
+When you initially go on the website it looks very nice, great photos, east to navigate, easy to book, but when you start dealing with the staff, you realize they aren't as impressive.
+I will be going back to the Beverly Wilshire, where I have stayed for the past seven years.  It is more expensive, but it is completely worth it, as the...I booked a two bedroom suite at this hotel in September 2015, the rate online was $425.00 /night, and was confirmed to me by email.  I thought this was a great rate so I called their International number, and the operator said this was correct and confirmed it again.  Now I am 5 days before arrival and they have told me that I need to pay 50% more, as their computer made a mistake.  I dealt with the General Manager, and even the owner, and none of them would stand by the rate that I had on paper, claiming it was a computer error.  After I had booked my reservation, I was sent this great letter welcoming me, and asking if I need any help planning my stay, groceries, personal trainers, reservations, etc.  This was a great idea.  But when I responded asking about transportation and personal trainers.  I didn't hear from anyone for 10 days, and then she only addressed my request for transportation.  Obviously I had to make other arrangements, as 10 days is incomprehensible.When you initially go on the website it looks very nice, great photos, east to navigate, easy to book, but when you start dealing with the staff, you realize they aren't as impressive.I will be going back to the Beverly Wilshire, where I have stayed for the past seven years.  It is more expensive, but it is completely worth it, as the staff are all extremely well trained, and they stand by what their company letterhead promises, even when it is a mistake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r320548087-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>320548087</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Large stylish five star apartments in a fantastic Beverly Hills location.</t>
+  </si>
+  <si>
+    <t>The AKA Beverly Hills are serviced apartments with all the amenities and service you would expect from a top five star hotel. The staff are wonderful - extremely helpful and friendly. The apartment was stylish, spotless, spacious and looked exactly like it did on their website. The apartment has everything you could possible need, free wifi, a fully equipped kitchen, separate lounge/ dinning area, fireplace, large balcony. The bedroom was quiet with an overhead fan and a supportive and comfortable king sized bed. It was about the same price as a five star hotel but offered a lot more in terms of space and amenities. The apartments have a lovely communal terrace, gym and movie cinema. The location is fantastic, Wholefoods is just a block away and everything Beverly Hills has to offer is within a ten minute walk. But if you don't feel like walking they have a town car, a beautiful electric Mercedes  with a helpful driver who will take you anywhere within a 2 mile radius.  I would highly recommend the AKA for the perfect Beverly Hills experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The AKA Beverly Hills are serviced apartments with all the amenities and service you would expect from a top five star hotel. The staff are wonderful - extremely helpful and friendly. The apartment was stylish, spotless, spacious and looked exactly like it did on their website. The apartment has everything you could possible need, free wifi, a fully equipped kitchen, separate lounge/ dinning area, fireplace, large balcony. The bedroom was quiet with an overhead fan and a supportive and comfortable king sized bed. It was about the same price as a five star hotel but offered a lot more in terms of space and amenities. The apartments have a lovely communal terrace, gym and movie cinema. The location is fantastic, Wholefoods is just a block away and everything Beverly Hills has to offer is within a ten minute walk. But if you don't feel like walking they have a town car, a beautiful electric Mercedes  with a helpful driver who will take you anywhere within a 2 mile radius.  I would highly recommend the AKA for the perfect Beverly Hills experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r317268933-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
@@ -396,9 +594,6 @@
     <t>Stayed here with family for a week. The staff, the layout, the location make this an incredibly nice place to stay.Could easily have stayed longer but other places to explore.The best front of house staff I have encountered in 20 years of travel!!It's at the top of our list for our next US adventure.Michael you rock!!</t>
   </si>
   <si>
-    <t>youngtravellerluxury</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r283036363-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -417,9 +612,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>TouristTraveler59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r274637056-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
   </si>
   <si>
@@ -441,7 +633,40 @@
     <t>Extraordinary hidden jewel. The hotel is centrally located in the Beverly Hills area.  Close to Rodeo Drive shopping, restaurants, entertainment and most important one block from grocery stores all within walking distance.  We enjoy morning walks and the local neighbourhood is very close including parks where very quiet walks can be done in the morning.  The hotel is modern, chic yet discreet.  Walking or driving by the complex you would not know it is a hotel.  The rooms were very large, clean, lots of windows, with all of the amenities for a long term stay.  The outdoor lounge area was extremely clean and lush with vegetation, maintained daily.  What makes this hotel incredible, is the STAFF!!  They all new my name, greeted us every time we entered the lobby.  Everyone smiled and waved and felt like home. Especially Jacky, she made us feel appreciated and respected, and always there.  The staff makes this hotel jump from four stars to FIVE.  In an area where other hotels are older, very expensive and tired, the AKA feels like a breath of fresh air. This now forces me to try the AKA chain on my future travels around the world.   Selfishly I hope this hotel does not become popular and remains a hidden jewel.More</t>
   </si>
   <si>
-    <t>Rana D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r233191993-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>233191993</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>A delight from.the moment i arrived.  Staff was very attentive, facility was stylish and spotless, and walking distance to sights, shopping, and activities.  They even have a very nice theater on-site.  The terrace is elegant and quiet.  I would definitely go again.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r226709736-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
+  </si>
+  <si>
+    <t>226709736</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Stayed here with the family during August 2014. The apartment was great, the service was excellent and everyone that worked there was friendly and accommodating! I would stay there again without a doubt!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32070-d6401676-r217353919-AKA_Beverly_Hills-Beverly_Hills_California.html</t>
@@ -961,53 +1186,51 @@
       <c r="A2" t="n">
         <v>62265</v>
       </c>
-      <c r="B2" t="n">
-        <v>149889</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -1016,57 +1239,57 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>62265</v>
       </c>
-      <c r="B3" t="n">
-        <v>149890</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1078,39 +1301,35 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>62265</v>
       </c>
-      <c r="B4" t="n">
-        <v>149891</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -1128,10 +1347,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1143,39 +1362,35 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>62265</v>
       </c>
-      <c r="B5" t="n">
-        <v>149892</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>78</v>
@@ -1190,13 +1405,13 @@
         <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1207,168 +1422,154 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>62265</v>
       </c>
-      <c r="B6" t="n">
-        <v>149893</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
       <c r="O6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>62265</v>
       </c>
-      <c r="B7" t="n">
-        <v>149894</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>95</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>62265</v>
       </c>
-      <c r="B8" t="n">
-        <v>149895</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>99</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
       </c>
       <c r="I8" t="s">
         <v>100</v>
@@ -1386,10 +1587,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1400,36 +1601,36 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>62265</v>
       </c>
-      <c r="B9" t="n">
-        <v>149896</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>107</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
       </c>
       <c r="I9" t="s">
         <v>108</v>
@@ -1446,8 +1647,12 @@
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1457,36 +1662,36 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>62265</v>
       </c>
-      <c r="B10" t="n">
-        <v>25262</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>113</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
       </c>
       <c r="I10" t="s">
         <v>114</v>
@@ -1503,55 +1708,47 @@
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>62265</v>
       </c>
-      <c r="B11" t="n">
-        <v>149897</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
         <v>121</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>122</v>
@@ -1568,8 +1765,12 @@
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1579,57 +1780,57 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>62265</v>
       </c>
-      <c r="B12" t="n">
-        <v>149898</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1643,63 +1844,59 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>62265</v>
       </c>
-      <c r="B13" t="n">
-        <v>149899</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>138</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
-      </c>
       <c r="O13" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1710,51 +1907,51 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>62265</v>
       </c>
-      <c r="B14" t="n">
-        <v>59246</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
         <v>142</v>
       </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" t="s">
-        <v>146</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -1767,7 +1964,705 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62265</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
